--- a/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
+++ b/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13515" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12300" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleConstants" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="LocalizationExample2" sheetId="9" r:id="rId4"/>
     <sheet name="ExampleData1" sheetId="6" r:id="rId5"/>
     <sheet name="ExampleData2" sheetId="7" r:id="rId6"/>
-    <sheet name="ExampleData3" sheetId="8" r:id="rId7"/>
-    <sheet name="ExampleData4" sheetId="5" r:id="rId8"/>
+    <sheet name="ExampleAttributeData" sheetId="8" r:id="rId7"/>
+    <sheet name="ExampleArrayData" sheetId="10" r:id="rId8"/>
+    <sheet name="ExampleData4" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -282,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="636">
   <si>
     <t>Name</t>
   </si>
@@ -2015,6 +2016,138 @@
     <t>ATT_CRIT_MULTIPLIER</t>
   </si>
   <si>
+    <t>arrayNumber[]</t>
+  </si>
+  <si>
+    <t>arrayString[]</t>
+  </si>
+  <si>
+    <t>arrayBoolean[]</t>
+  </si>
+  <si>
+    <t>arrayNumber1</t>
+  </si>
+  <si>
+    <t>arrayString2</t>
+  </si>
+  <si>
+    <t>arrayBoolean2</t>
+  </si>
+  <si>
+    <t>nestedArrayNumber[]</t>
+  </si>
+  <si>
+    <t>nestedArrayString[]</t>
+  </si>
+  <si>
+    <t>nestedArrayBoolean[]</t>
+  </si>
+  <si>
+    <t>a | b | c</t>
+  </si>
+  <si>
+    <t>true | false | false</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>3 | 4 | 5</t>
+  </si>
+  <si>
+    <t>6 | 7 | 8 | 9</t>
+  </si>
+  <si>
+    <t>a | b</t>
+  </si>
+  <si>
+    <t>c | d | e</t>
+  </si>
+  <si>
+    <t>f | g | h | j</t>
+  </si>
+  <si>
+    <t>true | true</t>
+  </si>
+  <si>
+    <t>true | false</t>
+  </si>
+  <si>
+    <t>false | false</t>
+  </si>
+  <si>
+    <t>4
+5
+6</t>
+  </si>
+  <si>
+    <t>A
+B
+C</t>
+  </si>
+  <si>
+    <t>false
+true
+true</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>10
+20</t>
+  </si>
+  <si>
+    <t>30
+40
+50</t>
+  </si>
+  <si>
+    <t>60
+70
+80
+90</t>
+  </si>
+  <si>
+    <t>A
+B</t>
+  </si>
+  <si>
+    <t>C
+D
+E</t>
+  </si>
+  <si>
+    <t>F
+G
+H
+J</t>
+  </si>
+  <si>
+    <t>true
+true</t>
+  </si>
+  <si>
+    <t>true
+false</t>
+  </si>
+  <si>
+    <t>false
+false</t>
+  </si>
+  <si>
     <t>col1</t>
   </si>
   <si>
@@ -2046,9 +2179,6 @@
   </si>
   <si>
     <t>col11</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
   <si>
     <t>df</t>
@@ -2103,7 +2233,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2124,6 +2254,12 @@
       <name val="Calibri"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2316,7 +2452,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2332,6 +2468,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2721,168 +2875,196 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="24" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2894,34 +3076,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2938,13 +3120,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2959,10 +3141,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2970,9 +3152,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
@@ -2981,22 +3163,22 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4425,262 +4607,262 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" style="34" customWidth="1"/>
-    <col min="3" max="3" width="18" style="34" customWidth="1"/>
-    <col min="4" max="4" width="36.4285714285714" style="34" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="25" style="44" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="44" customWidth="1"/>
+    <col min="3" max="3" width="18" style="44" customWidth="1"/>
+    <col min="4" max="4" width="36.4285714285714" style="44" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="58">
         <v>83</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="59" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="58">
         <v>1.021</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="59" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="59" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="50"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="61">
         <v>4</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="62" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="4:4">
-      <c r="D8" s="50"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="59" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="50"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="62" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="62" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="50"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="49" t="s">
+      <c r="D17" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="63" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="30" spans="1:4">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="63" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="18">
         <f>2*10*36</f>
         <v>720</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="63" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="18">
         <f>1+2+3+4+5+6+7+8+9</f>
         <v>45</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="63" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4698,7 +4880,7 @@
   <sheetPr/>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -4706,677 +4888,677 @@
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9.28571428571429" style="36" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
     <col min="7" max="7" width="12.4285714285714" customWidth="1"/>
     <col min="8" max="8" width="2.71428571428571" customWidth="1"/>
-    <col min="9" max="9" width="9.28571428571429" style="26" customWidth="1"/>
+    <col min="9" max="9" width="9.28571428571429" style="36" customWidth="1"/>
     <col min="10" max="10" width="13.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="9.28571428571429" style="26" customWidth="1"/>
+    <col min="12" max="12" width="9.28571428571429" style="36" customWidth="1"/>
     <col min="13" max="13" width="36.7142857142857" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="9.28571428571429" style="27" customWidth="1"/>
+    <col min="15" max="15" width="9.28571428571429" style="37" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
     <col min="17" max="17" width="2" customWidth="1"/>
     <col min="18" max="18" width="3.29523809523809" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="27"/>
+    <col min="19" max="19" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="36" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="38" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="36" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="45"/>
+      <c r="Q1" s="55"/>
       <c r="R1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="40">
         <v>0</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="42">
         <v>0</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="52">
         <v>0</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="43">
+      <c r="N2" s="53">
         <v>1</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="36" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="Q2" s="52">
         <v>1</v>
       </c>
       <c r="R2" s="1"/>
-      <c r="S2" s="29"/>
+      <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="28">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="40">
         <v>1</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="43">
         <v>1</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="40">
         <v>1</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="53">
         <v>2</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="36" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="42">
+      <c r="Q3" s="52">
         <v>2</v>
       </c>
       <c r="R3" s="1"/>
-      <c r="S3" s="29"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="28">
         <v>3</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="40">
         <v>2</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="41"/>
+      <c r="G4" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="43">
         <v>2</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="36" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="40">
         <v>2</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="43" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="53">
         <v>3</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="36" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="42">
+      <c r="Q4" s="52">
         <v>3</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="29"/>
+      <c r="S4" s="39"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="40">
         <v>3</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="43">
         <v>3</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="30">
+      <c r="K5" s="40">
         <v>3</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="43" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="53">
         <v>4</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="36" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="52">
         <v>4</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="29"/>
+      <c r="S5" s="39"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="28">
         <v>5</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="40">
         <v>4</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="43">
         <v>4</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="44" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="53">
         <v>5</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="11" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="40">
         <v>5</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="43">
         <v>5</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="44" t="s">
+      <c r="I7" s="39"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="53">
         <v>6</v>
       </c>
-      <c r="O7" s="29"/>
+      <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="11" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="40">
         <v>6</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="43">
         <v>6</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="44" t="s">
+      <c r="I8" s="39"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="53">
         <v>7</v>
       </c>
-      <c r="O8" s="29"/>
+      <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="40">
         <v>7</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="18" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="43">
         <v>7</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="44" t="s">
+      <c r="I9" s="39"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="53">
         <v>8</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="11" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="40">
         <v>8</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="18" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="43">
         <v>8</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="43" t="s">
+      <c r="I10" s="39"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="53">
         <v>9</v>
       </c>
-      <c r="O10" s="29"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="11" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="40">
         <v>9</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="18" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="43">
         <v>9</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="43" t="s">
+      <c r="I11" s="39"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="53">
         <v>10</v>
       </c>
-      <c r="O11" s="29"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="40">
         <v>10</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="43" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="43">
+      <c r="N12" s="53">
         <v>11</v>
       </c>
-      <c r="O12" s="29"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="11" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="40">
         <v>11</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="43" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="43">
+      <c r="N13" s="53">
         <v>12</v>
       </c>
-      <c r="O13" s="29"/>
+      <c r="O13" s="39"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="11" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="40">
         <v>12</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="43" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="N14" s="43">
+      <c r="N14" s="53">
         <v>13</v>
       </c>
-      <c r="O14" s="29"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="27"/>
-      <c r="D15" s="11" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="40">
         <v>13</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="43" t="s">
+      <c r="F15" s="41"/>
+      <c r="I15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="N15" s="43">
+      <c r="N15" s="53">
         <v>14</v>
       </c>
-      <c r="O15" s="29"/>
+      <c r="O15" s="39"/>
     </row>
     <row r="16" spans="13:15">
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="N16" s="43">
+      <c r="N16" s="53">
         <v>15</v>
       </c>
-      <c r="O16" s="29"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="13:15">
-      <c r="M17" s="43" t="s">
+      <c r="M17" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="53">
         <v>16</v>
       </c>
-      <c r="O17" s="29"/>
+      <c r="O17" s="39"/>
     </row>
     <row r="18" spans="13:15">
-      <c r="M18" s="44" t="s">
+      <c r="M18" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="53">
         <v>17</v>
       </c>
-      <c r="O18" s="29"/>
+      <c r="O18" s="39"/>
     </row>
     <row r="19" spans="13:15">
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="43">
+      <c r="N19" s="53">
         <v>18</v>
       </c>
-      <c r="O19" s="29"/>
+      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="13:15">
-      <c r="M20" s="44" t="s">
+      <c r="M20" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="N20" s="43">
+      <c r="N20" s="53">
         <v>19</v>
       </c>
-      <c r="O20" s="29"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" spans="13:15">
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="53">
         <v>20</v>
       </c>
-      <c r="O21" s="29"/>
+      <c r="O21" s="39"/>
     </row>
     <row r="22" spans="13:15">
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="53">
         <v>21</v>
       </c>
-      <c r="O22" s="29"/>
+      <c r="O22" s="39"/>
     </row>
     <row r="23" spans="13:15">
-      <c r="M23" s="44" t="s">
+      <c r="M23" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="54">
         <v>22</v>
       </c>
-      <c r="O23" s="29"/>
+      <c r="O23" s="39"/>
     </row>
     <row r="24" spans="13:15">
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="N24" s="43">
+      <c r="N24" s="53">
         <v>23</v>
       </c>
-      <c r="O24" s="29"/>
+      <c r="O24" s="39"/>
     </row>
     <row r="25" spans="13:15">
-      <c r="M25" s="43" t="s">
+      <c r="M25" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N25" s="53">
         <v>24</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="39"/>
     </row>
     <row r="26" spans="13:15">
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N26" s="53">
         <v>25</v>
       </c>
-      <c r="O26" s="29"/>
+      <c r="O26" s="39"/>
     </row>
     <row r="27" spans="13:15">
-      <c r="M27" s="43" t="s">
+      <c r="M27" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N27" s="53">
         <v>26</v>
       </c>
-      <c r="O27" s="29"/>
+      <c r="O27" s="39"/>
     </row>
     <row r="28" spans="13:15">
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="N28" s="43">
+      <c r="N28" s="53">
         <v>27</v>
       </c>
-      <c r="O28" s="29"/>
+      <c r="O28" s="39"/>
     </row>
     <row r="29" spans="13:15">
-      <c r="M29" s="44" t="s">
+      <c r="M29" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="N29" s="44">
+      <c r="N29" s="54">
         <v>28</v>
       </c>
-      <c r="O29" s="29"/>
+      <c r="O29" s="39"/>
     </row>
     <row r="30" spans="13:15">
-      <c r="M30" s="43" t="s">
+      <c r="M30" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="N30" s="43">
+      <c r="N30" s="53">
         <v>29</v>
       </c>
-      <c r="O30" s="29"/>
+      <c r="O30" s="39"/>
     </row>
     <row r="31" spans="13:15">
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N31" s="43">
+      <c r="N31" s="53">
         <v>30</v>
       </c>
-      <c r="O31" s="29"/>
+      <c r="O31" s="39"/>
     </row>
     <row r="32" spans="13:15">
-      <c r="M32" s="43" t="s">
+      <c r="M32" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="N32" s="43">
+      <c r="N32" s="53">
         <v>31</v>
       </c>
-      <c r="O32" s="29"/>
+      <c r="O32" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5432,742 +5614,742 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="23" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="23" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="24">
         <v>1</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="24" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="24">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="24">
         <v>3</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="24" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="24">
         <v>4</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="24" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="24">
         <v>5</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="23" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="23" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="23" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="23" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="24" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="23" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="23" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="23" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="23" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="30" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="30" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="30" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="30" t="s">
         <v>261</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="30" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="J33" s="24"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="31"/>
+      <c r="B34" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="23"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="J35" s="24"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="24"/>
+      <c r="J36" s="34"/>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="24"/>
+      <c r="J37" s="34"/>
     </row>
     <row r="38" spans="10:15">
-      <c r="J38" s="24"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="25"/>
+      <c r="J39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6207,25 +6389,25 @@
       <c r="A1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="22" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6233,20 +6415,20 @@
       <c r="A2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="22" t="s">
         <v>291</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -6257,20 +6439,20 @@
       <c r="A3" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="22" t="s">
         <v>298</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -6281,20 +6463,20 @@
       <c r="A4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="22" t="s">
         <v>305</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -6305,20 +6487,20 @@
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="22" t="s">
         <v>312</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -6329,20 +6511,20 @@
       <c r="A6" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="22" t="s">
         <v>319</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -6353,20 +6535,20 @@
       <c r="A7" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="22" t="s">
         <v>326</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -6377,20 +6559,20 @@
       <c r="A8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="22" t="s">
         <v>333</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -6401,20 +6583,20 @@
       <c r="A9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="22" t="s">
         <v>340</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -6425,20 +6607,20 @@
       <c r="A10" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="22" t="s">
         <v>347</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -6449,20 +6631,20 @@
       <c r="A11" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="22" t="s">
         <v>354</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -6473,20 +6655,20 @@
       <c r="A12" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="22" t="s">
         <v>361</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -6497,20 +6679,20 @@
       <c r="A13" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="22" t="s">
         <v>368</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -6521,20 +6703,20 @@
       <c r="A14" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="22" t="s">
         <v>375</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -6545,20 +6727,20 @@
       <c r="A15" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="22" t="s">
         <v>382</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -6569,20 +6751,20 @@
       <c r="A16" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="22" t="s">
         <v>387</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -6593,20 +6775,20 @@
       <c r="A17" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="22" t="s">
         <v>394</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -6617,20 +6799,20 @@
       <c r="A18" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="22" t="s">
         <v>401</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -6641,20 +6823,20 @@
       <c r="A19" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="22" t="s">
         <v>408</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -6665,20 +6847,20 @@
       <c r="A20" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="22" t="s">
         <v>415</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -6689,20 +6871,20 @@
       <c r="A21" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="22" t="s">
         <v>422</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -6713,20 +6895,20 @@
       <c r="A22" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="22" t="s">
         <v>429</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -6737,20 +6919,20 @@
       <c r="A23" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="22" t="s">
         <v>436</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -6761,20 +6943,20 @@
       <c r="A24" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="22" t="s">
         <v>443</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -6785,20 +6967,20 @@
       <c r="A25" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="22" t="s">
         <v>450</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -6809,20 +6991,20 @@
       <c r="A26" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="22" t="s">
         <v>454</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="22" t="s">
         <v>455</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="22" t="s">
         <v>457</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -6833,20 +7015,20 @@
       <c r="A27" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="22" t="s">
         <v>464</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -6885,294 +7067,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>469</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="14" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="15">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="15">
         <v>1.2</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="21">
         <v>10</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="21">
         <f>F2*2</f>
         <v>20</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="21">
         <v>1</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="21">
         <f>H2*2</f>
         <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="15">
         <v>20</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="15">
         <v>3.1</v>
       </c>
-      <c r="D3" s="5" t="b">
+      <c r="D3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="21">
         <v>20</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="21">
         <f t="shared" ref="G3:I8" si="0">F3*2</f>
         <v>40</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="21">
         <v>2</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="15">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="21">
         <v>30</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="21">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="21">
         <v>3</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5">
+      <c r="A5" s="15">
         <v>6</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="15">
         <v>10.7</v>
       </c>
-      <c r="D5" s="5" t="b">
+      <c r="D5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="21">
         <v>40</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="21">
         <v>4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5">
+      <c r="A6" s="15">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="15">
         <v>16.4</v>
       </c>
-      <c r="D6" s="5" t="b">
+      <c r="D6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="21">
         <v>50</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="21">
         <v>5</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="20">
         <v>14</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="20">
         <v>24</v>
       </c>
-      <c r="D7" s="10" t="b">
+      <c r="D7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="21">
         <v>60</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="21">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="21">
         <v>6</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="20">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="b">
+      <c r="D8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="21">
         <v>70</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="21">
         <v>7</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="15" t="s">
         <v>70</v>
       </c>
     </row>
@@ -7207,54 +7389,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>490</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="15">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="b">
+      <c r="D2" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="20" t="s">
         <v>497</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -7265,25 +7447,25 @@
       </c>
     </row>
     <row r="3" ht="30" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="20" t="s">
         <v>505</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -7294,25 +7476,25 @@
       </c>
     </row>
     <row r="4" ht="30" spans="1:9">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="20" t="s">
         <v>512</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -7323,25 +7505,25 @@
       </c>
     </row>
     <row r="5" ht="30" spans="1:9">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="20" t="s">
         <v>517</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -7352,25 +7534,25 @@
       </c>
     </row>
     <row r="6" ht="30" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>510</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="20" t="s">
         <v>497</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -7381,25 +7563,25 @@
       </c>
     </row>
     <row r="7" ht="30" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="20" t="s">
         <v>497</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -7410,25 +7592,25 @@
       </c>
     </row>
     <row r="8" ht="30" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="15">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D8" s="5" t="b">
+      <c r="D8" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="20" t="s">
         <v>497</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -7449,8 +7631,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -7477,360 +7659,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="14" t="s">
         <v>548</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="14" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="5">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="16">
         <v>30</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="16">
         <v>1.2</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="16">
         <v>8</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="5">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="16">
         <v>25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <v>3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="16">
         <v>1.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="16">
         <v>8</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="16">
         <v>3</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="16">
         <v>0</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="16">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="5">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="16">
         <v>30</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="16">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="16">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="16">
         <v>10</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="16">
         <v>1</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="16">
         <v>1.5</v>
       </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="5">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="16">
         <v>30</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="16">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="16">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="17" t="s">
         <v>567</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="16">
         <v>10</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="16">
         <v>1</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="16">
         <v>1.5</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="18">
         <v>15</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="5">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="16">
         <v>20</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="16">
         <v>10</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="8" t="s">
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="18">
         <v>21</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="5">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="16">
         <v>15</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="16">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="8" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="18">
         <v>23</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="18">
         <v>0.015</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="5">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>572</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="8" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="18" t="s">
         <v>573</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="18">
         <v>11</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7841,10 +8023,234 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:U3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.7142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.2857142857143" style="4" customWidth="1"/>
+    <col min="4" max="6" width="13.5714285714286" style="4" customWidth="1"/>
+    <col min="7" max="9" width="11.7142857142857" style="4" customWidth="1"/>
+    <col min="10" max="12" width="13.8571428571429" style="4" customWidth="1"/>
+    <col min="13" max="15" width="20.2857142857143" style="4" customWidth="1"/>
+    <col min="16" max="18" width="18.5714285714286" style="4" customWidth="1"/>
+    <col min="19" max="21" width="20.5714285714286" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9.14285714285714" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="J2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" ht="60" spans="1:21">
+      <c r="A3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="8">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="J3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -7860,39 +8266,39 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>576</v>
+        <v>613</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>577</v>
+        <v>614</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>579</v>
+        <v>616</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>580</v>
+        <v>617</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>581</v>
+        <v>618</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>582</v>
+        <v>619</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>583</v>
+        <v>620</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -7926,13 +8332,13 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7948,27 +8354,27 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>588</v>
+        <v>624</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(C3:E3)</f>
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>590</v>
+        <v>626</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>591</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7990,20 +8396,20 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>592</v>
+        <v>628</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>586</v>
+        <v>622</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>593</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8021,20 +8427,20 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8054,20 +8460,20 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="I6" s="1">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>597</v>
+        <v>633</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8091,20 +8497,20 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>598</v>
+        <v>634</v>
       </c>
       <c r="L7" s="2">
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>599</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
+++ b/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12300" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ExampleConstants" sheetId="1" r:id="rId1"/>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="628">
   <si>
     <t>Name</t>
   </si>
@@ -460,7 +460,7 @@
     <t>RACE_NONE</t>
   </si>
   <si>
-    <t>MOD_MAXIMUM_HP</t>
+    <t>ATT_MAXIMUM_HP</t>
   </si>
   <si>
     <t>GENDER_NONE</t>
@@ -475,7 +475,7 @@
     <t>PET_1</t>
   </si>
   <si>
-    <t>MOD_MAXIMUM_HP_INC</t>
+    <t>ATT_MAXIMUM_HP_INC</t>
   </si>
   <si>
     <t>GENDER_MALE</t>
@@ -493,7 +493,7 @@
     <t>RACE_ELF</t>
   </si>
   <si>
-    <t>MOD_ATK</t>
+    <t>ATT_ATK</t>
   </si>
   <si>
     <t>GENDER_FEMALE</t>
@@ -511,7 +511,7 @@
     <t>RACE_ORC</t>
   </si>
   <si>
-    <t>MOD_ATK_INC</t>
+    <t>ATT_ATK_INC</t>
   </si>
   <si>
     <t>GENDER_HELICOPTER</t>
@@ -526,7 +526,7 @@
     <t>PET_4</t>
   </si>
   <si>
-    <t>MOD_KNOCKBACK</t>
+    <t>ATT_KNOCKBACK</t>
   </si>
   <si>
     <t>BUILDING_5</t>
@@ -535,7 +535,7 @@
     <t>PET_5</t>
   </si>
   <si>
-    <t>MOD_KNOCKBACK_INC</t>
+    <t>ATT_KNOCKBACK_INC</t>
   </si>
   <si>
     <t>BUILDING_6</t>
@@ -544,7 +544,7 @@
     <t>PET_6</t>
   </si>
   <si>
-    <t>MOD_KNOCKBACK_RESISTANCE</t>
+    <t>ATT_KNOCKBACK_RESISTANCE</t>
   </si>
   <si>
     <t>BUILDING_7</t>
@@ -553,7 +553,7 @@
     <t>PET_7</t>
   </si>
   <si>
-    <t>MOD_KNOCKBACK_RESISTANCE_INC</t>
+    <t>ATT_KNOCKBACK_RESISTANCE_INC</t>
   </si>
   <si>
     <t>BUILDING_8</t>
@@ -562,7 +562,7 @@
     <t>PET_8</t>
   </si>
   <si>
-    <t>MOD_ATTACK_RANGE</t>
+    <t>ATT_ATTACK_RANGE</t>
   </si>
   <si>
     <t>BUILDING_9</t>
@@ -571,82 +571,82 @@
     <t>PET_9</t>
   </si>
   <si>
-    <t>MOD_ATTACK_RANGE_INC</t>
+    <t>ATT_ATTACK_RANGE_INC</t>
   </si>
   <si>
     <t>BUILDING_10</t>
   </si>
   <si>
-    <t>MOD_CRIT_CHANCE</t>
+    <t>ATT_CRIT_CHANCE</t>
   </si>
   <si>
     <t>BUILDING_11</t>
   </si>
   <si>
-    <t>MOD_CRIT_CHANCE_INC</t>
+    <t>ATT_CRIT_CHANCE_INC</t>
   </si>
   <si>
     <t>BUILDING_12</t>
   </si>
   <si>
-    <t>MOD_MOVE_SPEED</t>
+    <t>ATT_MOVE_SPEED</t>
   </si>
   <si>
     <t>BUILDING_13</t>
   </si>
   <si>
-    <t>MOD_MOVE_SPEED_INC</t>
-  </si>
-  <si>
-    <t>MOD_PROJECTILE_SPEED</t>
-  </si>
-  <si>
-    <t>MOD_PROJECTILE_SPEED_INC</t>
-  </si>
-  <si>
-    <t>MOD_RELOAD_TIME</t>
-  </si>
-  <si>
-    <t>MOD_RELOAD_TIME_INC</t>
-  </si>
-  <si>
-    <t>MOD_MAGAZINE</t>
-  </si>
-  <si>
-    <t>MOD_MAGAZINE_INC</t>
-  </si>
-  <si>
-    <t>MOD_MAXIMUM_AMMO</t>
-  </si>
-  <si>
-    <t>MOD_MAXIMUM_AMMO_INC</t>
-  </si>
-  <si>
-    <t>MOD_FIRE_RATE</t>
-  </si>
-  <si>
-    <t>MOD_FIRE_RATE_INC</t>
-  </si>
-  <si>
-    <t>MOD_PIERCING</t>
-  </si>
-  <si>
-    <t>MOD_CRIT_MULTIPLIER</t>
-  </si>
-  <si>
-    <t>MOD_CRIT_MULTIPLIER_INC</t>
-  </si>
-  <si>
-    <t>MOD_GUARD</t>
-  </si>
-  <si>
-    <t>MOD_DODGE_CHANCE</t>
-  </si>
-  <si>
-    <t>MOD_ACCURACY</t>
-  </si>
-  <si>
-    <t>MOD_ACCURACY_INC</t>
+    <t>ATT_MOVE_SPEED_INC</t>
+  </si>
+  <si>
+    <t>ATT_PROJECTILE_SPEED</t>
+  </si>
+  <si>
+    <t>ATT_PROJECTILE_SPEED_INC</t>
+  </si>
+  <si>
+    <t>ATT_RELOAD_TIME</t>
+  </si>
+  <si>
+    <t>ATT_RELOAD_TIME_INC</t>
+  </si>
+  <si>
+    <t>ATT_MAGAZINE</t>
+  </si>
+  <si>
+    <t>ATT_MAGAZINE_INC</t>
+  </si>
+  <si>
+    <t>ATT_MAXIMUM_AMMO</t>
+  </si>
+  <si>
+    <t>ATT_MAXIMUM_AMMO_INC</t>
+  </si>
+  <si>
+    <t>ATT_FIRE_RATE</t>
+  </si>
+  <si>
+    <t>ATT_FIRE_RATE_INC</t>
+  </si>
+  <si>
+    <t>ATT_PIERCING</t>
+  </si>
+  <si>
+    <t>ATT_CRIT_MULTIPLIER</t>
+  </si>
+  <si>
+    <t>ATT_CRIT_MULTIPLIER_INC</t>
+  </si>
+  <si>
+    <t>ATT_GUARD</t>
+  </si>
+  <si>
+    <t>ATT_DODGE_CHANCE</t>
+  </si>
+  <si>
+    <t>ATT_ACCURACY</t>
+  </si>
+  <si>
+    <t>ATT_ACCURACY_INC</t>
   </si>
   <si>
     <t>idstring</t>
@@ -1950,27 +1950,12 @@
     <t>example attribute 1</t>
   </si>
   <si>
-    <t>ATT_MAXIMUM_HP</t>
-  </si>
-  <si>
     <t>example attribute 2</t>
   </si>
   <si>
-    <t>ATT_MAGAZINE</t>
-  </si>
-  <si>
-    <t>ATT_ATTACK_RANGE</t>
-  </si>
-  <si>
     <t>example attribute 3</t>
   </si>
   <si>
-    <t>ATT_DODGE_CHANCE</t>
-  </si>
-  <si>
-    <t>ATT_ACCURACY</t>
-  </si>
-  <si>
     <t>3 | 2</t>
   </si>
   <si>
@@ -1998,22 +1983,13 @@
     <t>1.5 | 1</t>
   </si>
   <si>
-    <t>ATT_KNOCKBACK</t>
-  </si>
-  <si>
     <t>example attribute 5</t>
   </si>
   <si>
     <t>example attribute 6</t>
   </si>
   <si>
-    <t>ATT_FIRE_RATE</t>
-  </si>
-  <si>
     <t>example attribute 7</t>
-  </si>
-  <si>
-    <t>ATT_CRIT_MULTIPLIER</t>
   </si>
   <si>
     <t>arrayNumber[]</t>
@@ -4880,8 +4856,8 @@
   <sheetPr/>
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7631,8 +7607,8 @@
   <sheetPr/>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -7725,7 +7701,7 @@
         <v>551</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>552</v>
+        <v>58</v>
       </c>
       <c r="D2" s="16">
         <v>30</v>
@@ -7757,10 +7733,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>554</v>
+        <v>108</v>
       </c>
       <c r="D3" s="16">
         <v>25</v>
@@ -7780,7 +7756,7 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="16" t="s">
-        <v>555</v>
+        <v>92</v>
       </c>
       <c r="N3" s="16">
         <v>3</v>
@@ -7800,10 +7776,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>557</v>
+        <v>118</v>
       </c>
       <c r="D4" s="16">
         <v>30</v>
@@ -7818,22 +7794,22 @@
         <v>5</v>
       </c>
       <c r="H4" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>561</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>563</v>
       </c>
       <c r="N4" s="16">
         <v>10</v>
@@ -7853,10 +7829,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D5" s="16">
         <v>30</v>
@@ -7871,22 +7847,22 @@
         <v>8</v>
       </c>
       <c r="H5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="M5" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>565</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>563</v>
       </c>
       <c r="N5" s="16">
         <v>10</v>
@@ -7898,7 +7874,7 @@
         <v>1.5</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="R5" s="18">
         <v>15</v>
@@ -7910,10 +7886,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>554</v>
+        <v>108</v>
       </c>
       <c r="D6" s="16">
         <v>20</v>
@@ -7937,7 +7913,7 @@
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
       <c r="Q6" s="18" t="s">
-        <v>558</v>
+        <v>119</v>
       </c>
       <c r="R6" s="18">
         <v>21</v>
@@ -7949,10 +7925,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>552</v>
+        <v>58</v>
       </c>
       <c r="D7" s="16">
         <v>15</v>
@@ -7976,7 +7952,7 @@
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
       <c r="Q7" s="18" t="s">
-        <v>571</v>
+        <v>112</v>
       </c>
       <c r="R7" s="18">
         <v>23</v>
@@ -7990,7 +7966,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -8007,7 +7983,7 @@
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="18" t="s">
-        <v>573</v>
+        <v>115</v>
       </c>
       <c r="R8" s="18">
         <v>11</v>
@@ -8045,67 +8021,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>582</v>
-      </c>
       <c r="T1" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -8113,10 +8089,10 @@
         <v>502</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -8128,13 +8104,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="J2" s="12" t="b">
         <v>1</v>
@@ -8149,39 +8125,39 @@
         <v>508</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" ht="60" spans="1:21">
       <c r="A3" s="9" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="D3" s="8">
         <v>4</v>
@@ -8193,13 +8169,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="J3" s="12" t="b">
         <v>0</v>
@@ -8211,31 +8187,31 @@
         <v>1</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="U3" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -8250,7 +8226,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6"/>
@@ -8266,39 +8242,39 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="J1" s="2"/>
       <c r="K1" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -8325,20 +8301,20 @@
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="I2" s="1">
         <v>12</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L2" s="2">
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -8354,27 +8330,27 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G3" s="1">
         <f>AVERAGE(C3:E3)</f>
         <v>5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L3" s="2">
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -8396,20 +8372,20 @@
         <v>3</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L4" s="2">
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -8427,20 +8403,20 @@
       <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I5" s="1">
         <v>5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="L5" s="2">
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -8460,20 +8436,20 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="I6" s="1">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="L6" s="2">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -8497,20 +8473,20 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="I7" s="1">
         <v>5</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="L7" s="2">
         <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
+++ b/Assets/SheetXExample/Examples/Exporting an Excel File/Example.xlsx
@@ -4857,7 +4857,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
